--- a/biology/Botanique/Artemisia_argyi/Artemisia_argyi.xlsx
+++ b/biology/Botanique/Artemisia_argyi/Artemisia_argyi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Artemisia argyi H.Lév. &amp; Vaniot, dite « armoise chinoise » (en mandarin : Àicǎo, Ai4Cao3 艾草), est une espèce de plantes à fleurs de la famille des Asteraceae.
 Cette armoise asiatique est utilisée dans diverses préparations, comme plante médicinale. Elle est souvent confondue avec sa voisine Artemisia princeps, l'armoise dite « japonaise », ou avec l'armoise vulgaire (Artemisia vulgaris).
@@ -512,9 +524,11 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'Armoise de Chine est principalement utilisée comme plante médicinale, plus connue en Chine sous le nom de "gai you" ou "ai ye" . Elle est utilisée en cas d'eczéma, d'inflammation, de saignements et pour traiter les problèmes de menstruation. Elle est aussi administrée contre la tuberculose[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Armoise de Chine est principalement utilisée comme plante médicinale, plus connue en Chine sous le nom de "gai you" ou "ai ye" . Elle est utilisée en cas d'eczéma, d'inflammation, de saignements et pour traiter les problèmes de menstruation. Elle est aussi administrée contre la tuberculose.
 Les parties feuillues sont broyées et triées afin d'obtenir une laine feutrée destinée à la pratique de la moxibustion (en mandarin : 艾灸 Àijiǔ, Ai4Jjiu3).
 Des branches d'Armoise sont également traditionnellement suspendues au fronton des portes d'entrée des maisons pour protéger des démons puis brûlées en fumigation pour purifier l'espace domestique.
 </t>
@@ -545,11 +559,48 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Cette espèce a été décrite en 1910 par les botanistes français Hector Léveillé (1863-1918) et Eugène Vaniot (?-1913)[2].
-Synonymes
-Selon The Plant List            (24 septembre 2015)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite en 1910 par les botanistes français Hector Léveillé (1863-1918) et Eugène Vaniot (?-1913).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Artemisia_argyi</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Artemisia_argyi</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon The Plant List            (24 septembre 2015) :
 Artemisia argyi f. argyi
 Artemisia argyi var. argyi
 Artemisia argyi f. gracilis (Pamp.) Kitag.
@@ -561,11 +612,46 @@
 Artemisia nutantiflora Nakai ex Pamp.
 Artemisia vulgaris var. incana Maxim.
 Artemisia vulgaris var. incanescens Franch.
-Liste des variétés
-Selon Catalogue of Life                                   (24 septembre 2015)[4] :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Artemisia_argyi</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Artemisia_argyi</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Liste des variétés</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (24 septembre 2015) :
 variété Artemisia argyi var. argyi
 variété Artemisia argyi var. gracilis
-Selon Tropicos                                           (24 septembre 2015)[5] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (24 septembre 2015) (Attention liste brute contenant possiblement des synonymes) :
 variété Artemisia argyi var. argyi
 variété Artemisia argyi var. eximia (Pamp.) Kitag.
 variété Artemisia argyi var. gracilis Pamp.
